--- a/TimeReminder/Run/excel/USER.xlsx
+++ b/TimeReminder/Run/excel/USER.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>序号</t>
   </si>
@@ -38,6 +38,45 @@
   </si>
   <si>
     <t>备注</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>开发</t>
+  </si>
+  <si>
+    <t>柴临园</t>
+  </si>
+  <si>
+    <t>男</t>
+  </si>
+  <si>
+    <t>一般</t>
+  </si>
+  <si>
+    <t>2018/09/16</t>
+  </si>
+  <si>
+    <t>2018/10/10</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>研发</t>
+  </si>
+  <si>
+    <t>张春海</t>
+  </si>
+  <si>
+    <t>2018/09/01</t>
+  </si>
+  <si>
+    <t>222</t>
   </si>
 </sst>
 </file>
@@ -365,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0"/>
   </sheetViews>
@@ -397,6 +436,58 @@
         <v>7</v>
       </c>
     </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/TimeReminder/Run/excel/USER.xlsx
+++ b/TimeReminder/Run/excel/USER.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="30">
   <si>
     <t>序号</t>
   </si>
@@ -64,6 +64,9 @@
     <t>111</t>
   </si>
   <si>
+    <t>2018/09/22</t>
+  </si>
+  <si>
     <t>3</t>
   </si>
   <si>
@@ -77,6 +80,30 @@
   </si>
   <si>
     <t>222</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>反馈</t>
+  </si>
+  <si>
+    <t>的风格v不能</t>
+  </si>
+  <si>
+    <t>吃饭v搞不好</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
   </si>
 </sst>
 </file>
@@ -404,7 +431,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0"/>
   </sheetViews>
@@ -464,28 +491,184 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
         <v>16</v>
       </c>
-      <c r="B3" t="s">
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
         <v>17</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B4" t="s">
         <v>18</v>
       </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="C4" t="s">
         <v>19</v>
       </c>
-      <c r="G3" t="s">
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
         <v>14</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" t="s">
         <v>20</v>
+      </c>
+      <c r="G9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
